--- a/natmiOut/OldD4/LR-pairs_lrc2p/Spp1-Itga4.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Spp1-Itga4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -74,6 +74,9 @@
   </si>
   <si>
     <t>Edge total expression derived specificity</t>
+  </si>
+  <si>
+    <t>ECs</t>
   </si>
   <si>
     <t>FAPs</t>
@@ -449,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>52.1504360126784</v>
+        <v>11.50786633333333</v>
       </c>
       <c r="H2">
-        <v>52.1504360126784</v>
+        <v>34.523599</v>
       </c>
       <c r="I2">
-        <v>0.03436965160340817</v>
+        <v>0.005443852207333851</v>
       </c>
       <c r="J2">
-        <v>0.03436965160340817</v>
+        <v>0.005515849947528557</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>47.174012646515</v>
+        <v>0.3680823333333333</v>
       </c>
       <c r="N2">
-        <v>47.174012646515</v>
+        <v>1.104247</v>
       </c>
       <c r="O2">
-        <v>0.4188986365712714</v>
+        <v>0.002753916244137746</v>
       </c>
       <c r="P2">
-        <v>0.4188986365712714</v>
+        <v>0.002775263739301222</v>
       </c>
       <c r="Q2">
-        <v>2460.145327983362</v>
+        <v>4.235842291661444</v>
       </c>
       <c r="R2">
-        <v>2460.145327983362</v>
+        <v>38.122580624953</v>
       </c>
       <c r="S2">
-        <v>0.0143974001960973</v>
+        <v>1.499191302446181E-05</v>
       </c>
       <c r="T2">
-        <v>0.0143974001960973</v>
+        <v>1.530793835080255E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>22</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>52.1504360126784</v>
+        <v>11.50786633333333</v>
       </c>
       <c r="H3">
-        <v>52.1504360126784</v>
+        <v>34.523599</v>
       </c>
       <c r="I3">
-        <v>0.03436965160340817</v>
+        <v>0.005443852207333851</v>
       </c>
       <c r="J3">
-        <v>0.03436965160340817</v>
+        <v>0.005515849947528557</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>62.4380552209324</v>
+        <v>67.415553</v>
       </c>
       <c r="N3">
-        <v>62.4380552209324</v>
+        <v>202.246659</v>
       </c>
       <c r="O3">
-        <v>0.5544412004591804</v>
+        <v>0.5043892893009331</v>
       </c>
       <c r="P3">
-        <v>0.5544412004591804</v>
+        <v>0.508299156907394</v>
       </c>
       <c r="Q3">
-        <v>3256.171803555315</v>
+        <v>775.8091727117489</v>
       </c>
       <c r="R3">
-        <v>3256.171803555315</v>
+        <v>6982.28255440574</v>
       </c>
       <c r="S3">
-        <v>0.01905595089435742</v>
+        <v>0.002745820745916437</v>
       </c>
       <c r="T3">
-        <v>0.01905595089435742</v>
+        <v>0.002803701877956459</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,123 +649,123 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
         <v>23</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>52.1504360126784</v>
+        <v>11.50786633333333</v>
       </c>
       <c r="H4">
-        <v>52.1504360126784</v>
+        <v>34.523599</v>
       </c>
       <c r="I4">
-        <v>0.03436965160340817</v>
+        <v>0.005443852207333851</v>
       </c>
       <c r="J4">
-        <v>0.03436965160340817</v>
+        <v>0.005515849947528557</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.0023178766533</v>
+        <v>62.78983433333334</v>
       </c>
       <c r="N4">
-        <v>3.0023178766533</v>
+        <v>188.369503</v>
       </c>
       <c r="O4">
-        <v>0.02666016296954829</v>
+        <v>0.4697806144928208</v>
       </c>
       <c r="P4">
-        <v>0.02666016296954829</v>
+        <v>0.473422206504607</v>
       </c>
       <c r="Q4">
-        <v>156.5721863161284</v>
+        <v>722.5770206001441</v>
       </c>
       <c r="R4">
-        <v>156.5721863161284</v>
+        <v>6503.193185401296</v>
       </c>
       <c r="S4">
-        <v>0.0009163005129534586</v>
+        <v>0.002557416235169395</v>
       </c>
       <c r="T4">
-        <v>0.0009163005129534586</v>
+        <v>0.002611325852907291</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>24</v>
       </c>
-      <c r="C5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>706.460801518131</v>
+        <v>11.50786633333333</v>
       </c>
       <c r="H5">
-        <v>706.460801518131</v>
+        <v>34.523599</v>
       </c>
       <c r="I5">
-        <v>0.4655917280104753</v>
+        <v>0.005443852207333851</v>
       </c>
       <c r="J5">
-        <v>0.4655917280104753</v>
+        <v>0.005515849947528557</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>47.174012646515</v>
+        <v>3.084311</v>
       </c>
       <c r="N5">
-        <v>47.174012646515</v>
+        <v>6.168622</v>
       </c>
       <c r="O5">
-        <v>0.4188986365712714</v>
+        <v>0.0230761799621083</v>
       </c>
       <c r="P5">
-        <v>0.4188986365712714</v>
+        <v>0.0155033728486976</v>
       </c>
       <c r="Q5">
-        <v>33326.59078508343</v>
+        <v>35.49383871842966</v>
       </c>
       <c r="R5">
-        <v>33326.59078508343</v>
+        <v>212.963032310578</v>
       </c>
       <c r="S5">
-        <v>0.1950357400624503</v>
+        <v>0.0001256233132235564</v>
       </c>
       <c r="T5">
-        <v>0.1950357400624503</v>
+        <v>8.551427831400434E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,61 +773,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>706.460801518131</v>
+        <v>60.71131066666667</v>
       </c>
       <c r="H6">
-        <v>706.460801518131</v>
+        <v>182.133932</v>
       </c>
       <c r="I6">
-        <v>0.4655917280104753</v>
+        <v>0.02871978114879024</v>
       </c>
       <c r="J6">
-        <v>0.4655917280104753</v>
+        <v>0.02909961499858025</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>62.4380552209324</v>
+        <v>0.3680823333333333</v>
       </c>
       <c r="N6">
-        <v>62.4380552209324</v>
+        <v>1.104247</v>
       </c>
       <c r="O6">
-        <v>0.5544412004591804</v>
+        <v>0.002753916244137746</v>
       </c>
       <c r="P6">
-        <v>0.5544412004591804</v>
+        <v>0.002775263739301222</v>
       </c>
       <c r="Q6">
-        <v>44110.03853661323</v>
+        <v>22.34676088991156</v>
       </c>
       <c r="R6">
-        <v>44110.03853661323</v>
+        <v>201.120848009204</v>
       </c>
       <c r="S6">
-        <v>0.2581432366019921</v>
+        <v>7.909187183373443E-05</v>
       </c>
       <c r="T6">
-        <v>0.2581432366019921</v>
+        <v>8.075910633318574E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,185 +835,185 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>706.460801518131</v>
+        <v>60.71131066666667</v>
       </c>
       <c r="H7">
-        <v>706.460801518131</v>
+        <v>182.133932</v>
       </c>
       <c r="I7">
-        <v>0.4655917280104753</v>
+        <v>0.02871978114879024</v>
       </c>
       <c r="J7">
-        <v>0.4655917280104753</v>
+        <v>0.02909961499858025</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.0023178766533</v>
+        <v>67.415553</v>
       </c>
       <c r="N7">
-        <v>3.0023178766533</v>
+        <v>202.246659</v>
       </c>
       <c r="O7">
-        <v>0.02666016296954829</v>
+        <v>0.5043892893009331</v>
       </c>
       <c r="P7">
-        <v>0.02666016296954829</v>
+        <v>0.508299156907394</v>
       </c>
       <c r="Q7">
-        <v>2121.019893552703</v>
+        <v>4092.886581948133</v>
       </c>
       <c r="R7">
-        <v>2121.019893552703</v>
+        <v>36835.97923753319</v>
       </c>
       <c r="S7">
-        <v>0.01241275134603287</v>
+        <v>0.01448595000251664</v>
       </c>
       <c r="T7">
-        <v>0.01241275134603287</v>
+        <v>0.0147913097701081</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>745.621996578071</v>
+        <v>60.71131066666667</v>
       </c>
       <c r="H8">
-        <v>745.621996578071</v>
+        <v>182.133932</v>
       </c>
       <c r="I8">
-        <v>0.4914008435901807</v>
+        <v>0.02871978114879024</v>
       </c>
       <c r="J8">
-        <v>0.4914008435901807</v>
+        <v>0.02909961499858025</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>47.174012646515</v>
+        <v>62.78983433333334</v>
       </c>
       <c r="N8">
-        <v>47.174012646515</v>
+        <v>188.369503</v>
       </c>
       <c r="O8">
-        <v>0.4188986365712714</v>
+        <v>0.4697806144928208</v>
       </c>
       <c r="P8">
-        <v>0.4188986365712714</v>
+        <v>0.473422206504607</v>
       </c>
       <c r="Q8">
-        <v>35173.98149609369</v>
+        <v>3812.053138919533</v>
       </c>
       <c r="R8">
-        <v>35173.98149609369</v>
+        <v>34308.4782502758</v>
       </c>
       <c r="S8">
-        <v>0.2058471433898993</v>
+        <v>0.01349199643617801</v>
       </c>
       <c r="T8">
-        <v>0.2058471433898993</v>
+        <v>0.01377640394106242</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
         <v>24</v>
       </c>
-      <c r="C9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" t="s">
-        <v>22</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>745.621996578071</v>
+        <v>60.71131066666667</v>
       </c>
       <c r="H9">
-        <v>745.621996578071</v>
+        <v>182.133932</v>
       </c>
       <c r="I9">
-        <v>0.4914008435901807</v>
+        <v>0.02871978114879024</v>
       </c>
       <c r="J9">
-        <v>0.4914008435901807</v>
+        <v>0.02909961499858025</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>62.4380552209324</v>
+        <v>3.084311</v>
       </c>
       <c r="N9">
-        <v>62.4380552209324</v>
+        <v>6.168622</v>
       </c>
       <c r="O9">
-        <v>0.5544412004591804</v>
+        <v>0.0230761799621083</v>
       </c>
       <c r="P9">
-        <v>0.5544412004591804</v>
+        <v>0.0155033728486976</v>
       </c>
       <c r="Q9">
-        <v>46555.18739628347</v>
+        <v>187.2525633136173</v>
       </c>
       <c r="R9">
-        <v>46555.18739628347</v>
+        <v>1123.515379881704</v>
       </c>
       <c r="S9">
-        <v>0.2724528736267938</v>
+        <v>0.000662742838261849</v>
       </c>
       <c r="T9">
-        <v>0.2724528736267938</v>
+        <v>0.0004511421810765426</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1018,247 +1021,743 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>745.621996578071</v>
+        <v>1143.719258666667</v>
       </c>
       <c r="H10">
-        <v>745.621996578071</v>
+        <v>3431.157776</v>
       </c>
       <c r="I10">
-        <v>0.4914008435901807</v>
+        <v>0.541041964732249</v>
       </c>
       <c r="J10">
-        <v>0.4914008435901807</v>
+        <v>0.5481975224747514</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>3.0023178766533</v>
+        <v>0.3680823333333333</v>
       </c>
       <c r="N10">
-        <v>3.0023178766533</v>
+        <v>1.104247</v>
       </c>
       <c r="O10">
-        <v>0.02666016296954829</v>
+        <v>0.002753916244137746</v>
       </c>
       <c r="P10">
-        <v>0.02666016296954829</v>
+        <v>0.002775263739301222</v>
       </c>
       <c r="Q10">
-        <v>2238.594249552268</v>
+        <v>420.9828534082969</v>
       </c>
       <c r="R10">
-        <v>2238.594249552268</v>
+        <v>3788.845680674672</v>
       </c>
       <c r="S10">
-        <v>0.01310082657348773</v>
+        <v>0.001489984255436342</v>
       </c>
       <c r="T10">
-        <v>0.01310082657348773</v>
+        <v>0.001521392706098944</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>13.1064414410178</v>
+        <v>1143.719258666667</v>
       </c>
       <c r="H11">
-        <v>13.1064414410178</v>
+        <v>3431.157776</v>
       </c>
       <c r="I11">
-        <v>0.008637776795935888</v>
+        <v>0.541041964732249</v>
       </c>
       <c r="J11">
-        <v>0.008637776795935888</v>
+        <v>0.5481975224747514</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>47.174012646515</v>
+        <v>67.415553</v>
       </c>
       <c r="N11">
-        <v>47.174012646515</v>
+        <v>202.246659</v>
       </c>
       <c r="O11">
-        <v>0.4188986365712714</v>
+        <v>0.5043892893009331</v>
       </c>
       <c r="P11">
-        <v>0.4188986365712714</v>
+        <v>0.508299156907394</v>
       </c>
       <c r="Q11">
-        <v>618.2834342893821</v>
+        <v>77104.46629976339</v>
       </c>
       <c r="R11">
-        <v>618.2834342893821</v>
+        <v>693940.1966978704</v>
       </c>
       <c r="S11">
-        <v>0.003618352922824509</v>
+        <v>0.2728957720732795</v>
       </c>
       <c r="T11">
-        <v>0.003618352922824509</v>
+        <v>0.2786483384926383</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
         <v>23</v>
       </c>
-      <c r="B12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" t="s">
-        <v>22</v>
-      </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>13.1064414410178</v>
+        <v>1143.719258666667</v>
       </c>
       <c r="H12">
-        <v>13.1064414410178</v>
+        <v>3431.157776</v>
       </c>
       <c r="I12">
-        <v>0.008637776795935888</v>
+        <v>0.541041964732249</v>
       </c>
       <c r="J12">
-        <v>0.008637776795935888</v>
+        <v>0.5481975224747514</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>62.4380552209324</v>
+        <v>62.78983433333334</v>
       </c>
       <c r="N12">
-        <v>62.4380552209324</v>
+        <v>188.369503</v>
       </c>
       <c r="O12">
-        <v>0.5544412004591804</v>
+        <v>0.4697806144928208</v>
       </c>
       <c r="P12">
-        <v>0.5544412004591804</v>
+        <v>0.473422206504607</v>
       </c>
       <c r="Q12">
-        <v>818.3407144441862</v>
+        <v>71813.94277552282</v>
       </c>
       <c r="R12">
-        <v>818.3407144441862</v>
+        <v>646325.4849797053</v>
       </c>
       <c r="S12">
-        <v>0.004789139336037147</v>
+        <v>0.254171026658319</v>
       </c>
       <c r="T12">
-        <v>0.004789139336037147</v>
+        <v>0.2595288806903557</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>1143.719258666667</v>
+      </c>
+      <c r="H13">
+        <v>3431.157776</v>
+      </c>
+      <c r="I13">
+        <v>0.541041964732249</v>
+      </c>
+      <c r="J13">
+        <v>0.5481975224747514</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>3.084311</v>
+      </c>
+      <c r="N13">
+        <v>6.168622</v>
+      </c>
+      <c r="O13">
+        <v>0.0230761799621083</v>
+      </c>
+      <c r="P13">
+        <v>0.0155033728486976</v>
+      </c>
+      <c r="Q13">
+        <v>3527.585890417446</v>
+      </c>
+      <c r="R13">
+        <v>21165.51534250467</v>
+      </c>
+      <c r="S13">
+        <v>0.01248518174521403</v>
+      </c>
+      <c r="T13">
+        <v>0.008498910585658355</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
         <v>23</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>815.2030129999999</v>
+      </c>
+      <c r="H14">
+        <v>2445.609039</v>
+      </c>
+      <c r="I14">
+        <v>0.3856357549870674</v>
+      </c>
+      <c r="J14">
+        <v>0.3907359858235961</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M14">
+        <v>0.3680823333333333</v>
+      </c>
+      <c r="N14">
+        <v>1.104247</v>
+      </c>
+      <c r="O14">
+        <v>0.002753916244137746</v>
+      </c>
+      <c r="P14">
+        <v>0.002775263739301222</v>
+      </c>
+      <c r="Q14">
+        <v>300.0618271654037</v>
+      </c>
+      <c r="R14">
+        <v>2700.556444488633</v>
+      </c>
+      <c r="S14">
+        <v>0.001062008569979208</v>
+      </c>
+      <c r="T14">
+        <v>0.001084395413096342</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>815.2030129999999</v>
+      </c>
+      <c r="H15">
+        <v>2445.609039</v>
+      </c>
+      <c r="I15">
+        <v>0.3856357549870674</v>
+      </c>
+      <c r="J15">
+        <v>0.3907359858235961</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>67.415553</v>
+      </c>
+      <c r="N15">
+        <v>202.246659</v>
+      </c>
+      <c r="O15">
+        <v>0.5043892893009331</v>
+      </c>
+      <c r="P15">
+        <v>0.508299156907394</v>
+      </c>
+      <c r="Q15">
+        <v>54957.36192866119</v>
+      </c>
+      <c r="R15">
+        <v>494616.2573579507</v>
+      </c>
+      <c r="S15">
+        <v>0.1945105443869557</v>
+      </c>
+      <c r="T15">
+        <v>0.1986107721675134</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>815.2030129999999</v>
+      </c>
+      <c r="H16">
+        <v>2445.609039</v>
+      </c>
+      <c r="I16">
+        <v>0.3856357549870674</v>
+      </c>
+      <c r="J16">
+        <v>0.3907359858235961</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>62.78983433333334</v>
+      </c>
+      <c r="N16">
+        <v>188.369503</v>
+      </c>
+      <c r="O16">
+        <v>0.4697806144928208</v>
+      </c>
+      <c r="P16">
+        <v>0.473422206504607</v>
+      </c>
+      <c r="Q16">
+        <v>51186.46213430418</v>
+      </c>
+      <c r="R16">
+        <v>460678.1592087376</v>
+      </c>
+      <c r="S16">
+        <v>0.1811642019482274</v>
+      </c>
+      <c r="T16">
+        <v>0.1849830925693597</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
         <v>24</v>
       </c>
-      <c r="C13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>815.2030129999999</v>
+      </c>
+      <c r="H17">
+        <v>2445.609039</v>
+      </c>
+      <c r="I17">
+        <v>0.3856357549870674</v>
+      </c>
+      <c r="J17">
+        <v>0.3907359858235961</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>3.084311</v>
+      </c>
+      <c r="N17">
+        <v>6.168622</v>
+      </c>
+      <c r="O17">
+        <v>0.0230761799621083</v>
+      </c>
+      <c r="P17">
+        <v>0.0155033728486976</v>
+      </c>
+      <c r="Q17">
+        <v>2514.339620229043</v>
+      </c>
+      <c r="R17">
+        <v>15086.03772137426</v>
+      </c>
+      <c r="S17">
+        <v>0.00889900008190507</v>
+      </c>
+      <c r="T17">
+        <v>0.006057725673626632</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>82.77823450000001</v>
+      </c>
+      <c r="H18">
+        <v>165.556469</v>
+      </c>
+      <c r="I18">
+        <v>0.03915864692455941</v>
+      </c>
+      <c r="J18">
+        <v>0.02645102675554375</v>
+      </c>
+      <c r="K18">
+        <v>2</v>
+      </c>
+      <c r="L18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M18">
+        <v>0.3680823333333333</v>
+      </c>
+      <c r="N18">
+        <v>1.104247</v>
+      </c>
+      <c r="O18">
+        <v>0.002753916244137746</v>
+      </c>
+      <c r="P18">
+        <v>0.002775263739301222</v>
+      </c>
+      <c r="Q18">
+        <v>30.46920570397384</v>
+      </c>
+      <c r="R18">
+        <v>182.815234223843</v>
+      </c>
+      <c r="S18">
+        <v>0.0001078396338639987</v>
+      </c>
+      <c r="T18">
+        <v>7.3408575421947E-05</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>82.77823450000001</v>
+      </c>
+      <c r="H19">
+        <v>165.556469</v>
+      </c>
+      <c r="I19">
+        <v>0.03915864692455941</v>
+      </c>
+      <c r="J19">
+        <v>0.02645102675554375</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>67.415553</v>
+      </c>
+      <c r="N19">
+        <v>202.246659</v>
+      </c>
+      <c r="O19">
+        <v>0.5043892893009331</v>
+      </c>
+      <c r="P19">
+        <v>0.508299156907394</v>
+      </c>
+      <c r="Q19">
+        <v>5580.54045518118</v>
+      </c>
+      <c r="R19">
+        <v>33483.24273108708</v>
+      </c>
+      <c r="S19">
+        <v>0.01975120209226469</v>
+      </c>
+      <c r="T19">
+        <v>0.01344503459917781</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
         <v>23</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>13.1064414410178</v>
-      </c>
-      <c r="H13">
-        <v>13.1064414410178</v>
-      </c>
-      <c r="I13">
-        <v>0.008637776795935888</v>
-      </c>
-      <c r="J13">
-        <v>0.008637776795935888</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>3.0023178766533</v>
-      </c>
-      <c r="N13">
-        <v>3.0023178766533</v>
-      </c>
-      <c r="O13">
-        <v>0.02666016296954829</v>
-      </c>
-      <c r="P13">
-        <v>0.02666016296954829</v>
-      </c>
-      <c r="Q13">
-        <v>39.34970343767738</v>
-      </c>
-      <c r="R13">
-        <v>39.34970343767738</v>
-      </c>
-      <c r="S13">
-        <v>0.0002302845370742335</v>
-      </c>
-      <c r="T13">
-        <v>0.0002302845370742335</v>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>82.77823450000001</v>
+      </c>
+      <c r="H20">
+        <v>165.556469</v>
+      </c>
+      <c r="I20">
+        <v>0.03915864692455941</v>
+      </c>
+      <c r="J20">
+        <v>0.02645102675554375</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>62.78983433333334</v>
+      </c>
+      <c r="N20">
+        <v>188.369503</v>
+      </c>
+      <c r="O20">
+        <v>0.4697806144928208</v>
+      </c>
+      <c r="P20">
+        <v>0.473422206504607</v>
+      </c>
+      <c r="Q20">
+        <v>5197.631630660819</v>
+      </c>
+      <c r="R20">
+        <v>31185.78978396491</v>
+      </c>
+      <c r="S20">
+        <v>0.01839597321492693</v>
+      </c>
+      <c r="T20">
+        <v>0.01252250345092192</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>82.77823450000001</v>
+      </c>
+      <c r="H21">
+        <v>165.556469</v>
+      </c>
+      <c r="I21">
+        <v>0.03915864692455941</v>
+      </c>
+      <c r="J21">
+        <v>0.02645102675554375</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>3.084311</v>
+      </c>
+      <c r="N21">
+        <v>6.168622</v>
+      </c>
+      <c r="O21">
+        <v>0.0230761799621083</v>
+      </c>
+      <c r="P21">
+        <v>0.0155033728486976</v>
+      </c>
+      <c r="Q21">
+        <v>255.3138192289295</v>
+      </c>
+      <c r="R21">
+        <v>1021.255276915718</v>
+      </c>
+      <c r="S21">
+        <v>0.0009036319835037917</v>
+      </c>
+      <c r="T21">
+        <v>0.0004100801300220709</v>
       </c>
     </row>
   </sheetData>
